--- a/Caculate Soft/YeildFiles/YieldMonth_Finishing.xlsx
+++ b/Caculate Soft/YeildFiles/YieldMonth_Finishing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3-2022" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,21 @@
   <si>
     <t>MA2605</t>
   </si>
+  <si>
+    <t>YM1601</t>
+  </si>
+  <si>
+    <t>YM1605</t>
+  </si>
+  <si>
+    <t>YM2601</t>
+  </si>
+  <si>
+    <t>YM2605</t>
+  </si>
+  <si>
+    <t>YM3601</t>
+  </si>
 </sst>
 </file>
 
@@ -42,20 +57,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -141,9 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,22 +455,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" customHeight="1">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -486,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.8" customHeight="1">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44620</v>
       </c>
@@ -506,7 +507,7 @@
         <v>102520</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.8" customHeight="1">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44621</v>
       </c>
@@ -526,7 +527,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.8" customHeight="1">
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44622</v>
       </c>
@@ -546,7 +547,7 @@
         <v>59200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.8" customHeight="1">
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44623</v>
       </c>
@@ -566,7 +567,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.8" customHeight="1">
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44624</v>
       </c>
@@ -586,7 +587,7 @@
         <v>48200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.8" customHeight="1">
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44625</v>
       </c>
@@ -606,7 +607,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.8" customHeight="1">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44626</v>
       </c>
@@ -626,7 +627,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.8" customHeight="1">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44627</v>
       </c>
@@ -646,7 +647,7 @@
         <v>79600</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.8" customHeight="1">
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44628</v>
       </c>
@@ -666,7 +667,7 @@
         <v>90600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.8" customHeight="1">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44629</v>
       </c>
@@ -686,7 +687,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.8" customHeight="1">
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44630</v>
       </c>
@@ -706,7 +707,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.8" customHeight="1">
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44631</v>
       </c>
@@ -726,7 +727,7 @@
         <v>93400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.8" customHeight="1">
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44632</v>
       </c>
@@ -746,7 +747,7 @@
         <v>62920</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19.8" customHeight="1">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44633</v>
       </c>
@@ -766,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="19.8" customHeight="1">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44634</v>
       </c>
@@ -786,7 +787,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.8" customHeight="1">
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44635</v>
       </c>
@@ -806,7 +807,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.8" customHeight="1">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44636</v>
       </c>
@@ -826,7 +827,7 @@
         <v>67600</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.8" customHeight="1">
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44637</v>
       </c>
@@ -846,7 +847,7 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.8" customHeight="1">
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44638</v>
       </c>
@@ -866,7 +867,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.8" customHeight="1">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44639</v>
       </c>
@@ -886,7 +887,7 @@
         <v>100880</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.8" customHeight="1">
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44640</v>
       </c>
@@ -906,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.8" customHeight="1">
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44641</v>
       </c>
@@ -926,7 +927,7 @@
         <v>75160</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.8" customHeight="1">
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44642</v>
       </c>
@@ -946,7 +947,7 @@
         <v>94600</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.8" customHeight="1">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44643</v>
       </c>
@@ -966,7 +967,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.8" customHeight="1">
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44644</v>
       </c>
@@ -986,7 +987,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.8" customHeight="1">
+    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44645</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>71400</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.8" customHeight="1">
+    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44646</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>101600</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.8" customHeight="1">
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44647</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.8" customHeight="1">
+    <row r="30" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44648</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.8" customHeight="1">
+    <row r="31" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44649</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>82800</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.8" customHeight="1">
+    <row r="32" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44650</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>88400</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19.8" customHeight="1">
+    <row r="33" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44651</v>
       </c>
@@ -1134,379 +1135,1144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.399999999999999" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
+        <v>44621</v>
+      </c>
+      <c r="B2" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>91500</v>
+      </c>
+      <c r="D2" s="6">
+        <v>102500</v>
+      </c>
+      <c r="E2" s="7">
+        <v>91500</v>
+      </c>
+      <c r="F2" s="6">
+        <v>102500</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44622</v>
+      </c>
+      <c r="B3" s="8">
+        <v>59200</v>
+      </c>
+      <c r="C3" s="7">
+        <v>111500</v>
+      </c>
+      <c r="D3" s="6">
+        <v>114000</v>
+      </c>
+      <c r="E3" s="7">
+        <v>111500</v>
+      </c>
+      <c r="F3" s="6">
+        <v>114000</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>44623</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43800</v>
+      </c>
+      <c r="C4" s="7">
+        <v>117500</v>
+      </c>
+      <c r="D4" s="6">
+        <v>118000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>117500</v>
+      </c>
+      <c r="F4" s="6">
+        <v>118000</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>44624</v>
+      </c>
+      <c r="B5" s="8">
+        <v>48200</v>
+      </c>
+      <c r="C5" s="7">
+        <v>63000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>91000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>63000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>91000</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>44625</v>
+      </c>
+      <c r="B6" s="8">
+        <v>54000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>44626</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45200</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>44627</v>
+      </c>
+      <c r="B8" s="8">
+        <v>79600</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>62500</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>62500</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>44628</v>
+      </c>
+      <c r="B9" s="8">
+        <v>90600</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>112000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>112000</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>44629</v>
+      </c>
+      <c r="B10" s="8">
+        <v>67800</v>
+      </c>
+      <c r="C10" s="7">
+        <v>65000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>118000</v>
+      </c>
+      <c r="E10" s="7">
+        <v>65000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>118000</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>44630</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>108500</v>
+      </c>
+      <c r="D11" s="6">
+        <v>118500</v>
+      </c>
+      <c r="E11" s="7">
+        <v>108500</v>
+      </c>
+      <c r="F11" s="6">
+        <v>118500</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>44631</v>
+      </c>
+      <c r="B12" s="8">
+        <v>93400</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>121500</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>121500</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>44633</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>44634</v>
+      </c>
+      <c r="B14" s="8">
+        <v>41800</v>
+      </c>
+      <c r="C14" s="7">
+        <v>37500</v>
+      </c>
+      <c r="D14" s="6">
+        <v>64000</v>
+      </c>
+      <c r="E14" s="7">
+        <v>26600</v>
+      </c>
+      <c r="F14" s="6">
+        <v>64000</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>44635</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44200</v>
+      </c>
+      <c r="C15" s="7">
+        <v>128500</v>
+      </c>
+      <c r="D15" s="6">
+        <v>133000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>128500</v>
+      </c>
+      <c r="F15" s="6">
+        <v>133000</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>44636</v>
+      </c>
+      <c r="B16" s="8">
+        <v>67600</v>
+      </c>
+      <c r="C16" s="7">
+        <v>125000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>135500</v>
+      </c>
+      <c r="E16" s="7">
+        <v>125000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>135500</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>44637</v>
+      </c>
+      <c r="B17" s="8">
+        <v>88800</v>
+      </c>
+      <c r="C17" s="7">
+        <v>134000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>134000</v>
+      </c>
+      <c r="E17" s="7">
+        <v>134000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>134000</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>44638</v>
+      </c>
+      <c r="B18" s="8">
+        <v>67800</v>
+      </c>
+      <c r="C18" s="7">
+        <v>118500</v>
+      </c>
+      <c r="D18" s="6">
+        <v>120000</v>
+      </c>
+      <c r="E18" s="7">
+        <v>118500</v>
+      </c>
+      <c r="F18" s="6">
+        <v>120000</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>44639</v>
+      </c>
+      <c r="B19" s="8">
+        <v>100880</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44000</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>44000</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>44640</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>44641</v>
+      </c>
+      <c r="B21" s="8">
+        <v>75160</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>23500</v>
+      </c>
+      <c r="E21" s="7">
+        <v>21360</v>
+      </c>
+      <c r="F21" s="6">
+        <v>23500</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>44642</v>
+      </c>
+      <c r="B22" s="8">
+        <v>94600</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>66840</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>44643</v>
+      </c>
+      <c r="B23" s="8">
+        <v>128000</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>57200</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>44644</v>
+      </c>
+      <c r="B24" s="8">
+        <v>91000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>36500</v>
+      </c>
+      <c r="D24" s="6">
+        <v>63000</v>
+      </c>
+      <c r="E24" s="7">
+        <v>35600</v>
+      </c>
+      <c r="F24" s="6">
+        <v>63000</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>44645</v>
+      </c>
+      <c r="B25" s="8">
+        <v>71400</v>
+      </c>
+      <c r="C25" s="7">
+        <v>107500</v>
+      </c>
+      <c r="D25" s="6">
+        <v>125000</v>
+      </c>
+      <c r="E25" s="7">
+        <v>107500</v>
+      </c>
+      <c r="F25" s="6">
+        <v>125000</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>44646</v>
+      </c>
+      <c r="B26" s="8">
+        <v>101600</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E26" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>39000</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>44647</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>44648</v>
+      </c>
+      <c r="B28" s="8">
+        <v>62000</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>119500</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8600</v>
+      </c>
+      <c r="F28" s="6">
+        <v>119500</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>44649</v>
+      </c>
+      <c r="B29" s="8">
+        <v>82800</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>26500</v>
+      </c>
+      <c r="E29" s="7">
+        <v>47000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>26500</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>44650</v>
+      </c>
+      <c r="B30" s="8">
+        <v>88400</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>121000</v>
+      </c>
+      <c r="E30" s="7">
+        <v>37400</v>
+      </c>
+      <c r="F30" s="6">
+        <v>121000</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>44651</v>
+      </c>
+      <c r="B31" s="8">
+        <v>65000</v>
+      </c>
+      <c r="C31" s="7">
+        <v>115000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>121000</v>
+      </c>
+      <c r="E31" s="7">
+        <v>115000</v>
+      </c>
+      <c r="F31" s="6">
+        <v>121000</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>44652</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B32" s="8">
+        <v>44200</v>
+      </c>
+      <c r="C32" s="7">
         <v>82500</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D32" s="6">
+        <v>107000</v>
+      </c>
+      <c r="E32" s="7">
         <v>82500</v>
       </c>
-      <c r="D2" s="10">
+      <c r="F32" s="6">
         <v>107000</v>
       </c>
-      <c r="E2" s="10">
-        <v>107000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A3" s="4">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>44653</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B33" s="8">
+        <v>125600</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
         <v>44000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
         <v>44000</v>
       </c>
-      <c r="F3" s="5">
-        <v>125600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A4" s="4">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>44654</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B34" s="8">
+        <v>78800</v>
+      </c>
+      <c r="C34" s="7">
         <v>62900</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D34" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
         <v>58200</v>
       </c>
-      <c r="E4" s="5">
-        <v>39000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>78800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A5" s="4">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>44655</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A6" s="4">
+      <c r="B35" s="8">
+        <v>11690</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>43600</v>
+      </c>
+      <c r="F35" s="6">
+        <v>87400</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>44656</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A7" s="4">
+      <c r="B36" s="8">
+        <v>43520</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>68300</v>
+      </c>
+      <c r="F36" s="6">
+        <v>65200</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>44657</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A8" s="4">
+      <c r="B37" s="8">
+        <v>52320</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>73000</v>
+      </c>
+      <c r="F37" s="6">
+        <v>25800</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>44658</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A9" s="4">
+      <c r="B38" s="8">
+        <v>79400</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>83700</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>44659</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A10" s="4">
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>44660</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A11" s="4">
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>44661</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A12" s="4">
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>44662</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="4">
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>44663</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A14" s="4">
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>44664</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A15" s="4">
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>44665</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A16" s="4">
+      <c r="B45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>44666</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A17" s="4">
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>44667</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A18" s="4">
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>44668</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A19" s="4">
+      <c r="B48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>44669</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A20" s="4">
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>44670</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A21" s="4">
+      <c r="B50" s="8"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>44671</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A22" s="4">
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>44672</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A23" s="4">
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>44673</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A24" s="4">
+      <c r="B53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>44674</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A25" s="4">
+      <c r="B54" s="8"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>44675</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A26" s="4">
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>44676</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A27" s="4">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>44677</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A28" s="4">
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>44678</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A29" s="4">
+      <c r="B58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>44679</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="4">
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>44680</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="A31" s="4">
+      <c r="B60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>44681</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.399999999999999" customHeight="1">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
